--- a/HotkeyList.xlsx
+++ b/HotkeyList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wayan\PS\00 MUST HAVE\02 MyScripts\lwwkeymap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\wayan\ps\00 must have\02 myscripts\lwwkeymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B8DC2-B7AF-4D09-8A23-BE0F397CFE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEED33A-0CB1-426B-974C-9FA3E79F3420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="28695" windowHeight="15630" xr2:uid="{653E8878-3E37-41C1-9901-A8233505AAFB}"/>
+    <workbookView xWindow="28890" yWindow="495" windowWidth="28650" windowHeight="15615" activeTab="1" xr2:uid="{653E8878-3E37-41C1-9901-A8233505AAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="488">
   <si>
     <t> #   </t>
   </si>
@@ -1158,12 +1159,394 @@
   <si>
     <t>Right Ctrl + q</t>
   </si>
+  <si>
+    <t xml:space="preserve">` Capslock + 5 `         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">` Capslock + 6 `         </t>
+  </si>
+  <si>
+    <t>Navigation Keys</t>
+  </si>
+  <si>
+    <t>Action Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escape                                  </t>
+  </si>
+  <si>
+    <t>Enter (Using Left Hand)</t>
+  </si>
+  <si>
+    <t>Enter (Using Right Hand)</t>
+  </si>
+  <si>
+    <t>` Capslock + / `</t>
+  </si>
+  <si>
+    <t>Backspace (Right Hand)</t>
+  </si>
+  <si>
+    <t>` Capslock + n `</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{BS}                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete current word                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select and Copy current word          </t>
+  </si>
+  <si>
+    <t>` Win + Shift + s `</t>
+  </si>
+  <si>
+    <t>` Win + Shift + y `</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* All navigation keys functions with holding Shift key for Selection/Highlighting. </t>
+  </si>
+  <si>
+    <t>Select the App to be copied to (Activate the app before the hotkey)</t>
+  </si>
+  <si>
+    <t>Ctrl+Win+Shift+z</t>
+  </si>
+  <si>
+    <t>Shift+Alt + c</t>
+  </si>
+  <si>
+    <t>Copy selection to the selected app</t>
+  </si>
+  <si>
+    <t>Reset the App</t>
+  </si>
+  <si>
+    <t>Ctrl+Win+R</t>
+  </si>
+  <si>
+    <t>Mouse movement hotkeys</t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Top Left      </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Top Right     </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Middle Left   </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Middle Center </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Middle Right  </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Bottom Left   </t>
+  </si>
+  <si>
+    <t>Instantly move the cursor to  Bottom Right  </t>
+  </si>
+  <si>
+    <t>Double Click</t>
+  </si>
+  <si>
+    <t>Capslock + Left Mouse Button</t>
+  </si>
+  <si>
+    <t>Quick copy to Notepad</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+C</t>
+  </si>
+  <si>
+    <t>Quick Copy text</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + m `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + , `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + . `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + j `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + k `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + l `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + u `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + i `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + o `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + Space `</t>
+  </si>
+  <si>
+    <t>Multiplication (*)</t>
+  </si>
+  <si>
+    <t>Division (/)</t>
+  </si>
+  <si>
+    <t>Subtraction(-)</t>
+  </si>
+  <si>
+    <t>Addition(+)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + [ `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + ] `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + ; `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + ' `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + n `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + / `</t>
+  </si>
+  <si>
+    <t>` Ctrl + Alt + Shift + h `</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Numpad Mappings</t>
+  </si>
+  <si>
+    <t>Numlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl + Down Arrow                       </t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>` Capslock + 8 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 4 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 5 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 6 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 7 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 2 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 9 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 1 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 3 `</t>
+  </si>
+  <si>
+    <t>` Capslock + 0 `</t>
+  </si>
+  <si>
+    <t>` Capslock + + `</t>
+  </si>
+  <si>
+    <t>` Capslock + Numlock `</t>
+  </si>
+  <si>
+    <t>{F2}</t>
+  </si>
+  <si>
+    <t>{Numlock}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl + Up Arrow                       </t>
+  </si>
+  <si>
+    <t>{Ctrl}+{Rigth}</t>
+  </si>
+  <si>
+    <t>{Ctrl}+{Left}</t>
+  </si>
+  <si>
+    <t>{Ctrl}+{Up}</t>
+  </si>
+  <si>
+    <t>Number row mappings</t>
+  </si>
+  <si>
+    <t>`Capslock + 1`</t>
+  </si>
+  <si>
+    <t>`Capslock + 2`</t>
+  </si>
+  <si>
+    <t>`Capslock + 3`</t>
+  </si>
+  <si>
+    <t>`Capslock + 4`</t>
+  </si>
+  <si>
+    <t>`Capslock + 7`</t>
+  </si>
+  <si>
+    <t>`Capslock + 8`</t>
+  </si>
+  <si>
+    <t>`Capslock + 9`</t>
+  </si>
+  <si>
+    <t>`Capslock + 10`</t>
+  </si>
+  <si>
+    <t>Right Click (Apps key)</t>
+  </si>
+  <si>
+    <t>Rename (F2)</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backspace preceding word                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Capslock + 5`         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Capslock + 6`         </t>
+  </si>
+  <si>
+    <t>PageUp</t>
+  </si>
+  <si>
+    <t>PageDown</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Sorround with Paranthesis</t>
+  </si>
+  <si>
+    <t>Sorround with Quotes</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Apps Key</t>
+  </si>
+  <si>
+    <t>{PgUp}</t>
+  </si>
+  <si>
+    <t>{PgDn}</t>
+  </si>
+  <si>
+    <t>Converts xxx in to "xxx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`capslock + Home `           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`capslock + End`         </t>
+  </si>
+  <si>
+    <t>Bring the below line to the end of current line</t>
+  </si>
+  <si>
+    <t>{Home}  {BS}  {Space}  {End}</t>
+  </si>
+  <si>
+    <t>{End} {Space} {Delete}  {End}</t>
+  </si>
+  <si>
+    <t>Take the current line to the end of line above</t>
+  </si>
+  <si>
+    <t>Make Current Window Full Screen</t>
+  </si>
+  <si>
+    <t>Tile current window left</t>
+  </si>
+  <si>
+    <t>Tile current window Right</t>
+  </si>
+  <si>
+    <t>` Capslock + F12 `</t>
+  </si>
+  <si>
+    <t>` Win + Shift + w`</t>
+  </si>
+  <si>
+    <t>` Win + Shift + r`</t>
+  </si>
+  <si>
+    <t>` Win + Shift + e`</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1583,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF56B6C2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC678DD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1221,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1236,6 +1640,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4B3876-D69D-4C77-B977-56674B53A952}">
-  <dimension ref="C2:G224"/>
+  <dimension ref="C2:G222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,189 +2023,189 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
-        <v>306</v>
+      <c r="E13" t="s">
+        <v>304</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
-        <v>310</v>
+      <c r="E18" t="s">
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="4" t="s">
-        <v>312</v>
+      <c r="E21" t="s">
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>314</v>
+      <c r="E24" t="s">
+        <v>304</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
@@ -1792,1330 +2213,1330 @@
         <v>317</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
-        <v>317</v>
+      <c r="E29" t="s">
+        <v>304</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
-        <v>319</v>
+      <c r="E32" t="s">
+        <v>304</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" t="s">
-        <v>286</v>
+        <v>236</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>288</v>
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="4" t="s">
-        <v>322</v>
+      <c r="E36" t="s">
+        <v>304</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36" t="s">
-        <v>289</v>
+        <v>236</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>290</v>
+        <v>257</v>
+      </c>
+      <c r="G38" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="4" t="s">
-        <v>324</v>
+      <c r="E39" t="s">
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" t="s">
-        <v>291</v>
+        <v>236</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
+      </c>
+      <c r="G42" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="4" t="s">
-        <v>327</v>
+      <c r="E43" t="s">
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G44" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="4" t="s">
-        <v>330</v>
+      <c r="E47" t="s">
+        <v>304</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
-      </c>
-      <c r="G47" t="s">
-        <v>297</v>
+        <v>236</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>298</v>
+        <v>265</v>
+      </c>
+      <c r="G49" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="4" t="s">
-        <v>332</v>
+      <c r="E50" t="s">
+        <v>304</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G50" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="G55" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G56" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="F58" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
-      </c>
-      <c r="G59" t="s">
-        <v>270</v>
+        <v>136</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>193</v>
+        <v>236</v>
+      </c>
+      <c r="G60" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G61" t="s">
-        <v>270</v>
+        <v>190</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G63" s="2" t="s">
         <v>191</v>
       </c>
     </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>129</v>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" t="s">
-        <v>340</v>
-      </c>
-      <c r="G67" t="s">
-        <v>49</v>
+        <v>131</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" s="4" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="4" t="s">
+      <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F72" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="4" t="s">
+      <c r="E74" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>339</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="4" t="s">
-        <v>341</v>
+      <c r="E77" t="s">
+        <v>141</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>199</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>121</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>199</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
         <v>35</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F82" t="s">
         <v>139</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E85" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E86" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E87" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E88" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E94" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E95" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E96" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E97" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E98" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="1"/>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>142</v>
-      </c>
-      <c r="G101" s="1"/>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
-        <v>35</v>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
-      </c>
-      <c r="G102" t="s">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E109">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E111">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>151</v>
-      </c>
-      <c r="G111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E112">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>152</v>
-      </c>
-      <c r="G112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G113" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>364</v>
+      <c r="E116" t="s">
+        <v>362</v>
+      </c>
+      <c r="F116" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>35</v>
+        <v>363</v>
       </c>
       <c r="F117" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="F118" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="F119" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
-        <v>182</v>
-      </c>
-      <c r="F120" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121" t="s">
         <v>361</v>
       </c>
     </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" t="s">
+        <v>139</v>
+      </c>
+      <c r="G123" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>354</v>
+      <c r="E124" t="s">
+        <v>184</v>
+      </c>
+      <c r="F124" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>35</v>
-      </c>
-      <c r="F125" t="s">
-        <v>139</v>
-      </c>
-      <c r="G125" t="s">
-        <v>49</v>
+        <v>356</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>184</v>
-      </c>
-      <c r="F126" t="s">
-        <v>94</v>
+        <v>140</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>356</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
-        <v>140</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="F127" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" t="s">
-        <v>355</v>
+      <c r="C129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E131" t="s">
+        <v>186</v>
+      </c>
+      <c r="F131" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>187</v>
+      </c>
+      <c r="F134" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
-        <v>186</v>
-      </c>
-      <c r="F133" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
-        <v>187</v>
-      </c>
-      <c r="F136" t="s">
-        <v>367</v>
+      <c r="G137" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>44</v>
+      <c r="E138" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>0</v>
-      </c>
       <c r="E139" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F140" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G140" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F141" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G142" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>62</v>
+      <c r="E143" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F143" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="G143" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F144" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G144" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E145" s="4" t="s">
-        <v>200</v>
+      <c r="E145" t="s">
+        <v>66</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G145" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F146" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G146" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F147" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G147" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>65</v>
+      <c r="E148" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F148" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F149" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E150" s="4" t="s">
-        <v>200</v>
+      <c r="E150" t="s">
+        <v>69</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="G150" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F151" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>69</v>
+      <c r="E152" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F152" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="G152" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F153" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E154" s="4" t="s">
-        <v>200</v>
+      <c r="E154" t="s">
+        <v>105</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="G154" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F156" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F157" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G157" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F158" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F159" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G159" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F160" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G160" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>111</v>
+      <c r="E161" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F161" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="G161" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F162" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E163" s="4" t="s">
+      <c r="E163" t="s">
+        <v>74</v>
+      </c>
+      <c r="F163" t="s">
+        <v>90</v>
+      </c>
+      <c r="G163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E164" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F164" t="s">
         <v>200</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G164" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>73</v>
-      </c>
-      <c r="F164" t="s">
-        <v>89</v>
-      </c>
-      <c r="G164" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F165" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E166" s="4" t="s">
+      <c r="E166" t="s">
+        <v>75</v>
+      </c>
+      <c r="F166" t="s">
+        <v>92</v>
+      </c>
+      <c r="G166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E167" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>200</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G167" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>76</v>
-      </c>
-      <c r="F167" t="s">
-        <v>91</v>
-      </c>
-      <c r="G167" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="168" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F168" t="s">
-        <v>92</v>
-      </c>
-      <c r="G168" t="s">
-        <v>202</v>
+        <v>93</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="5:7" x14ac:dyDescent="0.25">
@@ -3131,359 +3552,2746 @@
     </row>
     <row r="170" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F170" t="s">
-        <v>93</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="G170" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E171" s="4" t="s">
-        <v>200</v>
+      <c r="E171" t="s">
+        <v>62</v>
       </c>
       <c r="F171" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G171" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F172" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F173" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G173" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E174" t="s">
-        <v>79</v>
-      </c>
-      <c r="F174" t="s">
-        <v>96</v>
-      </c>
-      <c r="G174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>80</v>
-      </c>
-      <c r="F175" t="s">
-        <v>97</v>
-      </c>
-      <c r="G175" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>18</v>
+      <c r="C179" s="1"/>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+      <c r="E180" t="s">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="E182" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F182" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="E183" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
-      <c r="E188" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
-      <c r="E189" t="s">
-        <v>17</v>
-      </c>
-      <c r="F189" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>26</v>
+      </c>
+      <c r="F196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>24</v>
-      </c>
-      <c r="F197" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E198" t="s">
-        <v>26</v>
-      </c>
-      <c r="F198" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>28</v>
-      </c>
-      <c r="F199" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>30</v>
-      </c>
-      <c r="F200" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E201" t="s">
-        <v>32</v>
-      </c>
-      <c r="F201" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E202" t="s">
-        <v>34</v>
-      </c>
-      <c r="F202" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>45</v>
+      </c>
+      <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F205" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D208" t="s">
-        <v>47</v>
-      </c>
-      <c r="E208" t="s">
-        <v>41</v>
-      </c>
-      <c r="F208" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
-        <v>48</v>
-      </c>
-      <c r="E209" t="s">
-        <v>43</v>
-      </c>
-      <c r="F209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471B052E-878A-4EE9-A83B-165D330B8729}">
+  <dimension ref="C2:G267"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="63.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E76" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E79" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E80" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="7"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E99" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E102" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E107" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E108" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E109" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E110" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E111" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E113" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E114" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E116" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E120" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E123" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G123" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E124" s="6">
+        <v>3</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G124" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E125" s="6">
+        <v>4</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G125" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E126" s="6">
+        <v>5</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G126" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E127" s="6">
+        <v>6</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G127" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E128" s="6">
+        <v>7</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G128" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E129" s="6">
+        <v>8</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G129" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E130" s="6">
+        <v>9</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G130" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E131" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E132" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E133" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E134" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E135" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E136" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E137" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E141" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E142" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E143" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E144" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E145" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E146" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E147" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E148" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E149" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E150" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E151" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E152" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E153" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E154" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C157" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E158" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E159" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E160" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E161" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E162" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E166" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E167" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E168" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E169" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E170" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E171" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E172" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E173" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C175" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E177" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E178" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E179" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E180" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C182" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E183" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E184" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C186" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E187" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E188" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E189" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E190" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E191" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E192" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E193" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E194" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E195" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E196" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E197" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E198" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E199" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E200" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E201" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E202" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E203" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E204" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E205" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E206" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E207" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E208" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E209" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E210" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E211" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E212" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E213" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E214" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E215" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E216" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E217" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E218" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E219" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E220" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E221" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E222" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E223" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C227" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C229" s="9"/>
+      <c r="E229" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C230" s="9"/>
+      <c r="E230" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C231" s="9"/>
+      <c r="E231" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C232" s="9"/>
+      <c r="E232" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C233" s="9"/>
+      <c r="E233" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C234" s="9"/>
+      <c r="E234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C235" s="9"/>
+      <c r="E235" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C236" s="9"/>
+      <c r="E236" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C237" s="9"/>
+      <c r="E237" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E238" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E239" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E240" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E241" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E242" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E243" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E244" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E245" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C247" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D248" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D249" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D250" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D251" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D252" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D253" s="6">
+        <v>5</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+    </row>
+    <row r="266" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
